--- a/Olah Nilai/4C/Rekapitulasi Nilai Praktikum 4C.xlsx
+++ b/Olah Nilai/4C/Rekapitulasi Nilai Praktikum 4C.xlsx
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>85.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="17" t="n">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="32" t="n">
-        <v>85.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="17" t="n">
         <v>1000</v>
@@ -2145,13 +2145,13 @@
         <v>0</v>
       </c>
       <c r="AF13" s="17" t="n">
-        <v>85.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="17" t="n">
         <v>100</v>
       </c>
       <c r="AH13" s="17" t="n">
-        <v>44.26000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>91.25</v>
+        <v>83.25</v>
       </c>
       <c r="Z14" s="17" t="n">
         <v>965</v>
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="AB14" s="32" t="n">
-        <v>91.25</v>
+        <v>83.25</v>
       </c>
       <c r="AC14" s="17" t="n">
         <v>1000</v>
@@ -2279,13 +2279,13 @@
         </is>
       </c>
       <c r="AF14" t="n">
-        <v>91.25</v>
+        <v>83.25</v>
       </c>
       <c r="AG14" s="17" t="n">
         <v>100</v>
       </c>
       <c r="AH14" s="17" t="n">
-        <v>95.8</v>
+        <v>92.59999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="33" t="n">
-        <v>0</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="Z21" s="17" t="n">
         <v>285</v>
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="AB21" s="32" t="n">
-        <v>0</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="AC21" s="17" t="n">
         <v>1000</v>
@@ -3197,13 +3197,13 @@
         </is>
       </c>
       <c r="AF21" s="17" t="n">
-        <v>0</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="AG21" s="17" t="n">
         <v>100</v>
       </c>
       <c r="AH21" s="17" t="n">
-        <v>39.7</v>
+        <v>73.96000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -4228,7 +4228,7 @@
         </is>
       </c>
       <c r="Y29" s="33" t="n">
-        <v>92.85000000000001</v>
+        <v>91.25</v>
       </c>
       <c r="Z29" s="17" t="n">
         <v>855</v>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="AB29" s="32" t="n">
-        <v>92.85000000000001</v>
+        <v>91.25</v>
       </c>
       <c r="AC29" s="17" t="n">
         <v>1000</v>
@@ -4253,13 +4253,13 @@
         </is>
       </c>
       <c r="AF29" s="17" t="n">
-        <v>92.85000000000001</v>
+        <v>91.25</v>
       </c>
       <c r="AG29" s="17" t="n">
         <v>100</v>
       </c>
       <c r="AH29" s="17" t="n">
-        <v>94.24000000000001</v>
+        <v>93.59999999999999</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1">
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="Y30" s="33" t="n">
-        <v>84.85000000000001</v>
+        <v>87.85000000000001</v>
       </c>
       <c r="Z30" s="17" t="n">
         <v>715</v>
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="AB30" s="32" t="n">
-        <v>84.85000000000001</v>
+        <v>87.85000000000001</v>
       </c>
       <c r="AC30" s="17" t="n">
         <v>1000</v>
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="AF30" s="17" t="n">
-        <v>84.85000000000001</v>
+        <v>87.85000000000001</v>
       </c>
       <c r="AG30" s="17" t="n">
         <v>100</v>
       </c>
       <c r="AH30" s="17" t="n">
-        <v>82.24000000000001</v>
+        <v>83.44</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="Y31" s="33" t="n">
-        <v>94.25</v>
+        <v>92.85000000000001</v>
       </c>
       <c r="Z31" s="17" t="n">
         <v>965</v>
@@ -4503,7 +4503,7 @@
         </is>
       </c>
       <c r="AB31" s="32" t="n">
-        <v>94.25</v>
+        <v>92.85000000000001</v>
       </c>
       <c r="AC31" s="17" t="n">
         <v>1000</v>
@@ -4517,13 +4517,13 @@
         </is>
       </c>
       <c r="AF31" s="17" t="n">
-        <v>94.25</v>
+        <v>92.85000000000001</v>
       </c>
       <c r="AG31" s="17" t="n">
         <v>100</v>
       </c>
       <c r="AH31" s="17" t="n">
-        <v>97</v>
+        <v>96.44</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1">
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="Y32" s="33" t="n">
-        <v>83.25</v>
+        <v>91.25</v>
       </c>
       <c r="Z32" s="17" t="n">
         <v>950</v>
@@ -4637,7 +4637,7 @@
         </is>
       </c>
       <c r="AB32" s="32" t="n">
-        <v>83.25</v>
+        <v>91.25</v>
       </c>
       <c r="AC32" s="17" t="n">
         <v>1000</v>
@@ -4651,13 +4651,13 @@
         </is>
       </c>
       <c r="AF32" s="17" t="n">
-        <v>83.25</v>
+        <v>91.25</v>
       </c>
       <c r="AG32" s="17" t="n">
         <v>100</v>
       </c>
       <c r="AH32" s="17" t="n">
-        <v>92.30000000000001</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="Y33" s="33" t="n">
-        <v>87.85000000000001</v>
+        <v>84.85000000000001</v>
       </c>
       <c r="Z33" s="17" t="n">
         <v>955</v>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="AB33" s="32" t="n">
-        <v>87.85000000000001</v>
+        <v>84.85000000000001</v>
       </c>
       <c r="AC33" s="17" t="n">
         <v>1000</v>
@@ -4785,13 +4785,13 @@
         </is>
       </c>
       <c r="AF33" s="17" t="n">
-        <v>87.85000000000001</v>
+        <v>84.85000000000001</v>
       </c>
       <c r="AG33" s="17" t="n">
         <v>100</v>
       </c>
       <c r="AH33" s="17" t="n">
-        <v>94.24000000000001</v>
+        <v>93.04000000000001</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
@@ -4894,7 +4894,7 @@
         </is>
       </c>
       <c r="Y34" s="33" t="n">
-        <v>91.25</v>
+        <v>83.25</v>
       </c>
       <c r="Z34" s="17" t="n">
         <v>955</v>
@@ -4905,7 +4905,7 @@
         </is>
       </c>
       <c r="AB34" s="32" t="n">
-        <v>91.25</v>
+        <v>83.25</v>
       </c>
       <c r="AC34" s="17" t="n">
         <v>1000</v>
@@ -4919,13 +4919,13 @@
         </is>
       </c>
       <c r="AF34" s="17" t="n">
-        <v>91.25</v>
+        <v>83.25</v>
       </c>
       <c r="AG34" s="17" t="n">
         <v>100</v>
       </c>
       <c r="AH34" s="17" t="n">
-        <v>95.59999999999999</v>
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="Y35" s="33" t="n">
-        <v>83.25</v>
+        <v>94.25</v>
       </c>
       <c r="Z35" s="17" t="n">
         <v>965</v>
@@ -5039,7 +5039,7 @@
         </is>
       </c>
       <c r="AB35" s="32" t="n">
-        <v>83.25</v>
+        <v>94.25</v>
       </c>
       <c r="AC35" s="17" t="n">
         <v>1000</v>
@@ -5053,13 +5053,13 @@
         </is>
       </c>
       <c r="AF35" s="17" t="n">
-        <v>83.25</v>
+        <v>94.25</v>
       </c>
       <c r="AG35" s="17" t="n">
         <v>100</v>
       </c>
       <c r="AH35" s="17" t="n">
-        <v>86.59999999999999</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
